--- a/doc/02.06.2014 Meeting/result.xlsx
+++ b/doc/02.06.2014 Meeting/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="19">
   <si>
     <t xml:space="preserve">method </t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">topK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nbest_goals </t>
   </si>
 </sst>
 </file>
@@ -410,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,12 +2141,1307 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.70144669999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.97987849999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.94130449999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.59710649999999998</v>
+      </c>
+      <c r="H2">
+        <v>4.0243099999999997E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.11739090000000001</v>
+      </c>
+      <c r="J2">
+        <v>1.25E-4</v>
+      </c>
+      <c r="K2">
+        <v>1.3779999999999999E-4</v>
+      </c>
+      <c r="L2">
+        <v>9.2499999999999999E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.70889959999999996</v>
+      </c>
+      <c r="E3">
+        <v>0.97987849999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.93364100000000005</v>
+      </c>
+      <c r="G3">
+        <v>0.58220079999999996</v>
+      </c>
+      <c r="H3">
+        <v>4.0243099999999997E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.1327179</v>
+      </c>
+      <c r="J3">
+        <v>1.237E-4</v>
+      </c>
+      <c r="K3">
+        <v>1.3779999999999999E-4</v>
+      </c>
+      <c r="L3">
+        <v>9.3300000000000005E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.71109160000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.97866310000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.93895320000000004</v>
+      </c>
+      <c r="G4">
+        <v>0.57781669999999996</v>
+      </c>
+      <c r="H4">
+        <v>4.2673900000000001E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.12209349999999999</v>
+      </c>
+      <c r="J4">
+        <v>1.2329999999999999E-4</v>
+      </c>
+      <c r="K4">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="L4">
+        <v>9.2700000000000004E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.70688289999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.98136389999999996</v>
+      </c>
+      <c r="F5">
+        <v>0.93590530000000005</v>
+      </c>
+      <c r="G5">
+        <v>0.58623409999999998</v>
+      </c>
+      <c r="H5">
+        <v>3.7272100000000002E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.12818950000000001</v>
+      </c>
+      <c r="J5">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="K5">
+        <v>1.3760000000000001E-4</v>
+      </c>
+      <c r="L5">
+        <v>9.2999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.70127139999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.96772449999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.93790819999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.59745729999999997</v>
+      </c>
+      <c r="H6">
+        <v>6.4550999999999997E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.12418360000000001</v>
+      </c>
+      <c r="J6">
+        <v>1.25E-4</v>
+      </c>
+      <c r="K6">
+        <v>1.395E-4</v>
+      </c>
+      <c r="L6">
+        <v>9.2899999999999995E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0.69215260000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.97407160000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.93573110000000004</v>
+      </c>
+      <c r="G7">
+        <v>0.61569490000000004</v>
+      </c>
+      <c r="H7">
+        <v>5.1856899999999997E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.12853780000000001</v>
+      </c>
+      <c r="J7">
+        <v>1.2669999999999999E-4</v>
+      </c>
+      <c r="K7">
+        <v>1.3860000000000001E-4</v>
+      </c>
+      <c r="L7">
+        <v>9.31E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0.68312139999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.96299800000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.93834360000000006</v>
+      </c>
+      <c r="G8">
+        <v>0.63375709999999996</v>
+      </c>
+      <c r="H8">
+        <v>7.4004100000000003E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.1233127</v>
+      </c>
+      <c r="J8">
+        <v>1.284E-4</v>
+      </c>
+      <c r="K8">
+        <v>1.4019999999999999E-4</v>
+      </c>
+      <c r="L8">
+        <v>9.2800000000000006E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0.67645770000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.97353140000000005</v>
+      </c>
+      <c r="F9">
+        <v>0.93773399999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.64708460000000001</v>
+      </c>
+      <c r="H9">
+        <v>5.2937199999999997E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.1245319</v>
+      </c>
+      <c r="J9">
+        <v>1.2960000000000001E-4</v>
+      </c>
+      <c r="K9">
+        <v>1.3870000000000001E-4</v>
+      </c>
+      <c r="L9">
+        <v>9.2899999999999995E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0.67032000000000003</v>
+      </c>
+      <c r="E10">
+        <v>0.96596890000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.93834360000000006</v>
+      </c>
+      <c r="G10">
+        <v>0.6593599</v>
+      </c>
+      <c r="H10">
+        <v>6.80621E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.1233127</v>
+      </c>
+      <c r="J10">
+        <v>1.3080000000000001E-4</v>
+      </c>
+      <c r="K10">
+        <v>1.3980000000000001E-4</v>
+      </c>
+      <c r="L10">
+        <v>9.2800000000000006E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0.66330560000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.97407160000000004</v>
+      </c>
+      <c r="F11">
+        <v>0.93834360000000006</v>
+      </c>
+      <c r="G11">
+        <v>0.67338889999999996</v>
+      </c>
+      <c r="H11">
+        <v>5.1856899999999997E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.1233127</v>
+      </c>
+      <c r="J11">
+        <v>1.3219999999999999E-4</v>
+      </c>
+      <c r="K11">
+        <v>1.3860000000000001E-4</v>
+      </c>
+      <c r="L11">
+        <v>9.2800000000000006E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.66330560000000005</v>
+      </c>
+      <c r="E12">
+        <v>0.97407160000000004</v>
+      </c>
+      <c r="F12">
+        <v>0.93834360000000006</v>
+      </c>
+      <c r="G12">
+        <v>0.67338889999999996</v>
+      </c>
+      <c r="H12">
+        <v>5.1856899999999997E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.1233127</v>
+      </c>
+      <c r="J12">
+        <v>1.3219999999999999E-4</v>
+      </c>
+      <c r="K12">
+        <v>1.3860000000000001E-4</v>
+      </c>
+      <c r="L12">
+        <v>9.2800000000000006E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.56152239999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.96357740000000003</v>
+      </c>
+      <c r="F14">
+        <v>0.89601660000000005</v>
+      </c>
+      <c r="G14">
+        <v>0.87695520000000005</v>
+      </c>
+      <c r="H14">
+        <v>7.2845300000000002E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.20796690000000001</v>
+      </c>
+      <c r="J14">
+        <v>4.6430000000000001E-4</v>
+      </c>
+      <c r="K14">
+        <v>3.7429999999999999E-4</v>
+      </c>
+      <c r="L14">
+        <v>2.8870000000000002E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.57716369999999995</v>
+      </c>
+      <c r="E15">
+        <v>0.96538049999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.8942059</v>
+      </c>
+      <c r="G15">
+        <v>0.8456726</v>
+      </c>
+      <c r="H15">
+        <v>6.9239099999999998E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.2115882</v>
+      </c>
+      <c r="J15">
+        <v>4.5169999999999997E-4</v>
+      </c>
+      <c r="K15">
+        <v>3.7359999999999997E-4</v>
+      </c>
+      <c r="L15">
+        <v>2.8929999999999998E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0.58237749999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.96357740000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.89472320000000005</v>
+      </c>
+      <c r="G16">
+        <v>0.83524500000000002</v>
+      </c>
+      <c r="H16">
+        <v>7.2845300000000002E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.2105535</v>
+      </c>
+      <c r="J16">
+        <v>4.4759999999999998E-4</v>
+      </c>
+      <c r="K16">
+        <v>3.7429999999999999E-4</v>
+      </c>
+      <c r="L16">
+        <v>2.8909999999999998E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.57012510000000005</v>
+      </c>
+      <c r="E17">
+        <v>0.96249549999999995</v>
+      </c>
+      <c r="F17">
+        <v>0.8957579</v>
+      </c>
+      <c r="G17">
+        <v>0.85974969999999995</v>
+      </c>
+      <c r="H17">
+        <v>7.5009000000000006E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.20848420000000001</v>
+      </c>
+      <c r="J17">
+        <v>4.572E-4</v>
+      </c>
+      <c r="K17">
+        <v>3.747E-4</v>
+      </c>
+      <c r="L17">
+        <v>2.8880000000000003E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0.56074040000000003</v>
+      </c>
+      <c r="E18">
+        <v>0.95023440000000003</v>
+      </c>
+      <c r="F18">
+        <v>0.89679260000000005</v>
+      </c>
+      <c r="G18">
+        <v>0.8785193</v>
+      </c>
+      <c r="H18">
+        <v>9.95312E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.20641490000000001</v>
+      </c>
+      <c r="J18">
+        <v>4.6490000000000002E-4</v>
+      </c>
+      <c r="K18">
+        <v>3.7950000000000001E-4</v>
+      </c>
+      <c r="L18">
+        <v>2.8840000000000002E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>0.54640250000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.95492250000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.8957579</v>
+      </c>
+      <c r="G19">
+        <v>0.90719499999999997</v>
+      </c>
+      <c r="H19">
+        <v>9.0155100000000002E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.20848420000000001</v>
+      </c>
+      <c r="J19">
+        <v>4.771E-4</v>
+      </c>
+      <c r="K19">
+        <v>3.7760000000000002E-4</v>
+      </c>
+      <c r="L19">
+        <v>2.8880000000000003E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>0.55265900000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.94626759999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.89808589999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.89468199999999998</v>
+      </c>
+      <c r="H20">
+        <v>0.1074648</v>
+      </c>
+      <c r="I20">
+        <v>0.20382819999999999</v>
+      </c>
+      <c r="J20">
+        <v>4.7169999999999997E-4</v>
+      </c>
+      <c r="K20">
+        <v>3.8109999999999999E-4</v>
+      </c>
+      <c r="L20">
+        <v>2.8800000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>0.54822729999999997</v>
+      </c>
+      <c r="E21">
+        <v>0.95275869999999996</v>
+      </c>
+      <c r="F21">
+        <v>0.89653389999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.90354540000000005</v>
+      </c>
+      <c r="H21">
+        <v>9.4482499999999997E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.20693220000000001</v>
+      </c>
+      <c r="J21">
+        <v>4.7550000000000001E-4</v>
+      </c>
+      <c r="K21">
+        <v>3.7849999999999998E-4</v>
+      </c>
+      <c r="L21">
+        <v>2.8850000000000002E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0.55239830000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.95023440000000003</v>
+      </c>
+      <c r="F22">
+        <v>0.89756849999999999</v>
+      </c>
+      <c r="G22">
+        <v>0.89520330000000004</v>
+      </c>
+      <c r="H22">
+        <v>9.95312E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.20486289999999999</v>
+      </c>
+      <c r="J22">
+        <v>4.7189999999999998E-4</v>
+      </c>
+      <c r="K22">
+        <v>3.7950000000000001E-4</v>
+      </c>
+      <c r="L22">
+        <v>2.8820000000000001E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>0.54066740000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.95744680000000004</v>
+      </c>
+      <c r="F23">
+        <v>0.89808589999999999</v>
+      </c>
+      <c r="G23">
+        <v>0.91866530000000002</v>
+      </c>
+      <c r="H23">
+        <v>8.5106399999999999E-2</v>
+      </c>
+      <c r="I23">
+        <v>0.20382819999999999</v>
+      </c>
+      <c r="J23">
+        <v>4.8220000000000001E-4</v>
+      </c>
+      <c r="K23">
+        <v>3.7659999999999999E-4</v>
+      </c>
+      <c r="L23">
+        <v>2.8800000000000001E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>0.54066740000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.95744680000000004</v>
+      </c>
+      <c r="F24">
+        <v>0.89808589999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.91866530000000002</v>
+      </c>
+      <c r="H24">
+        <v>8.5106399999999999E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.20382819999999999</v>
+      </c>
+      <c r="J24">
+        <v>4.8220000000000001E-4</v>
+      </c>
+      <c r="K24">
+        <v>3.7659999999999999E-4</v>
+      </c>
+      <c r="L24">
+        <v>2.8800000000000001E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.6134792</v>
+      </c>
+      <c r="E26">
+        <v>0.97378019999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.92631359999999996</v>
+      </c>
+      <c r="G26">
+        <v>0.7730416</v>
+      </c>
+      <c r="H26">
+        <v>5.2439699999999999E-2</v>
+      </c>
+      <c r="I26">
+        <v>0.1473727</v>
+      </c>
+      <c r="J26">
+        <v>1.682E-4</v>
+      </c>
+      <c r="K26">
+        <v>1.783E-4</v>
+      </c>
+      <c r="L26">
+        <v>1.108E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.6252451</v>
+      </c>
+      <c r="E27">
+        <v>0.97378019999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.92344009999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.7495098</v>
+      </c>
+      <c r="H27">
+        <v>5.2439699999999999E-2</v>
+      </c>
+      <c r="I27">
+        <v>0.1531199</v>
+      </c>
+      <c r="J27">
+        <v>1.651E-4</v>
+      </c>
+      <c r="K27">
+        <v>1.783E-4</v>
+      </c>
+      <c r="L27">
+        <v>1.111E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0.63277939999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.97325919999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.92723730000000004</v>
+      </c>
+      <c r="G28">
+        <v>0.73444109999999996</v>
+      </c>
+      <c r="H28">
+        <v>5.3481500000000001E-2</v>
+      </c>
+      <c r="I28">
+        <v>0.1455255</v>
+      </c>
+      <c r="J28">
+        <v>1.6310000000000001E-4</v>
+      </c>
+      <c r="K28">
+        <v>1.784E-4</v>
+      </c>
+      <c r="L28">
+        <v>1.1069999999999999E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0.63546290000000005</v>
+      </c>
+      <c r="E29">
+        <v>0.97360650000000004</v>
+      </c>
+      <c r="F29">
+        <v>0.9223112</v>
+      </c>
+      <c r="G29">
+        <v>0.72907420000000001</v>
+      </c>
+      <c r="H29">
+        <v>5.2786899999999998E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.15537770000000001</v>
+      </c>
+      <c r="J29">
+        <v>1.6239999999999999E-4</v>
+      </c>
+      <c r="K29">
+        <v>1.783E-4</v>
+      </c>
+      <c r="L29">
+        <v>1.1129999999999999E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>0.63866239999999996</v>
+      </c>
+      <c r="E30">
+        <v>0.96231979999999995</v>
+      </c>
+      <c r="F30">
+        <v>0.92641629999999997</v>
+      </c>
+      <c r="G30">
+        <v>0.72267519999999996</v>
+      </c>
+      <c r="H30">
+        <v>7.5360300000000005E-2</v>
+      </c>
+      <c r="I30">
+        <v>0.14716750000000001</v>
+      </c>
+      <c r="J30">
+        <v>1.616E-4</v>
+      </c>
+      <c r="K30">
+        <v>1.8039999999999999E-4</v>
+      </c>
+      <c r="L30">
+        <v>1.108E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>0.63432759999999999</v>
+      </c>
+      <c r="E31">
+        <v>0.96804999999999997</v>
+      </c>
+      <c r="F31">
+        <v>0.92354270000000005</v>
+      </c>
+      <c r="G31">
+        <v>0.73134480000000002</v>
+      </c>
+      <c r="H31">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="I31">
+        <v>0.15291460000000001</v>
+      </c>
+      <c r="J31">
+        <v>1.627E-4</v>
+      </c>
+      <c r="K31">
+        <v>1.794E-4</v>
+      </c>
+      <c r="L31">
+        <v>1.111E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>0.62772220000000001</v>
+      </c>
+      <c r="E32">
+        <v>0.95780520000000002</v>
+      </c>
+      <c r="F32">
+        <v>0.92344009999999999</v>
+      </c>
+      <c r="G32">
+        <v>0.74455570000000004</v>
+      </c>
+      <c r="H32">
+        <v>8.4389699999999998E-2</v>
+      </c>
+      <c r="I32">
+        <v>0.1531199</v>
+      </c>
+      <c r="J32">
+        <v>1.6440000000000001E-4</v>
+      </c>
+      <c r="K32">
+        <v>1.8129999999999999E-4</v>
+      </c>
+      <c r="L32">
+        <v>1.111E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>0.62194240000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.96787639999999997</v>
+      </c>
+      <c r="F33">
+        <v>0.92302960000000001</v>
+      </c>
+      <c r="G33">
+        <v>0.75611519999999999</v>
+      </c>
+      <c r="H33">
+        <v>6.4247299999999993E-2</v>
+      </c>
+      <c r="I33">
+        <v>0.15394089999999999</v>
+      </c>
+      <c r="J33">
+        <v>1.6589999999999999E-4</v>
+      </c>
+      <c r="K33">
+        <v>1.794E-4</v>
+      </c>
+      <c r="L33">
+        <v>1.1120000000000001E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>0.61585299999999998</v>
+      </c>
+      <c r="E34">
+        <v>0.9624935</v>
+      </c>
+      <c r="F34">
+        <v>0.92333739999999997</v>
+      </c>
+      <c r="G34">
+        <v>0.76829389999999997</v>
+      </c>
+      <c r="H34">
+        <v>7.5012999999999996E-2</v>
+      </c>
+      <c r="I34">
+        <v>0.15332509999999999</v>
+      </c>
+      <c r="J34">
+        <v>1.6760000000000001E-4</v>
+      </c>
+      <c r="K34">
+        <v>1.8039999999999999E-4</v>
+      </c>
+      <c r="L34">
+        <v>1.111E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>0.60966039999999999</v>
+      </c>
+      <c r="E35">
+        <v>0.96961280000000005</v>
+      </c>
+      <c r="F35">
+        <v>0.92272169999999998</v>
+      </c>
+      <c r="G35">
+        <v>0.78067909999999996</v>
+      </c>
+      <c r="H35">
+        <v>6.0774399999999999E-2</v>
+      </c>
+      <c r="I35">
+        <v>0.15455669999999999</v>
+      </c>
+      <c r="J35">
+        <v>1.693E-4</v>
+      </c>
+      <c r="K35">
+        <v>1.7909999999999999E-4</v>
+      </c>
+      <c r="L35">
+        <v>1.1120000000000001E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>0.60966039999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.96961280000000005</v>
+      </c>
+      <c r="F36">
+        <v>0.92272169999999998</v>
+      </c>
+      <c r="G36">
+        <v>0.78067909999999996</v>
+      </c>
+      <c r="H36">
+        <v>6.0774399999999999E-2</v>
+      </c>
+      <c r="I36">
+        <v>0.15455669999999999</v>
+      </c>
+      <c r="J36">
+        <v>1.693E-4</v>
+      </c>
+      <c r="K36">
+        <v>1.7909999999999999E-4</v>
+      </c>
+      <c r="L36">
+        <v>1.1120000000000001E-4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/doc/02.06.2014 Meeting/result.xlsx
+++ b/doc/02.06.2014 Meeting/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="20">
   <si>
     <t xml:space="preserve">method </t>
   </si>
@@ -74,6 +74,9 @@
   <si>
     <t xml:space="preserve">nbest_goals </t>
   </si>
+  <si>
+    <t xml:space="preserve">nbest_goals_all </t>
+  </si>
 </sst>
 </file>
 
@@ -88,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,13 +423,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2143,11 +2153,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:H14"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3448,12 +3461,1310 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.70653220000000005</v>
+      </c>
+      <c r="E2">
+        <v>0.98136389999999996</v>
+      </c>
+      <c r="F2">
+        <v>0.94052080000000005</v>
+      </c>
+      <c r="G2">
+        <v>0.5869356</v>
+      </c>
+      <c r="H2">
+        <v>3.7272100000000002E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.11895849999999999</v>
+      </c>
+      <c r="J2">
+        <v>1.2410000000000001E-4</v>
+      </c>
+      <c r="K2">
+        <v>1.3760000000000001E-4</v>
+      </c>
+      <c r="L2">
+        <v>9.2600000000000001E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.72994300000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.9820392</v>
+      </c>
+      <c r="F3">
+        <v>0.93390229999999996</v>
+      </c>
+      <c r="G3">
+        <v>0.54011399999999998</v>
+      </c>
+      <c r="H3">
+        <v>3.5921700000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.13219539999999999</v>
+      </c>
+      <c r="J3">
+        <v>1.2010000000000001E-4</v>
+      </c>
+      <c r="K3">
+        <v>1.3750000000000001E-4</v>
+      </c>
+      <c r="L3">
+        <v>9.3200000000000002E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.7453748</v>
+      </c>
+      <c r="E4">
+        <v>0.98109389999999996</v>
+      </c>
+      <c r="F4">
+        <v>0.93877909999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.50925030000000004</v>
+      </c>
+      <c r="H4">
+        <v>3.78123E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.12244190000000001</v>
+      </c>
+      <c r="J4">
+        <v>1.176E-4</v>
+      </c>
+      <c r="K4">
+        <v>1.3760000000000001E-4</v>
+      </c>
+      <c r="L4">
+        <v>9.2800000000000006E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.74879439999999997</v>
+      </c>
+      <c r="E5">
+        <v>0.98284939999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.93590530000000005</v>
+      </c>
+      <c r="G5">
+        <v>0.50241119999999995</v>
+      </c>
+      <c r="H5">
+        <v>3.4301100000000001E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.12818950000000001</v>
+      </c>
+      <c r="J5">
+        <v>1.171E-4</v>
+      </c>
+      <c r="K5">
+        <v>1.3740000000000001E-4</v>
+      </c>
+      <c r="L5">
+        <v>9.2999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.74896980000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.97974340000000004</v>
+      </c>
+      <c r="F6">
+        <v>0.93930159999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.50206050000000002</v>
+      </c>
+      <c r="H6">
+        <v>4.0513199999999999E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.1213968</v>
+      </c>
+      <c r="J6">
+        <v>1.171E-4</v>
+      </c>
+      <c r="K6">
+        <v>1.3779999999999999E-4</v>
+      </c>
+      <c r="L6">
+        <v>9.2700000000000004E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0.74712849999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.98122889999999996</v>
+      </c>
+      <c r="F7">
+        <v>0.93625360000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.5057431</v>
+      </c>
+      <c r="H7">
+        <v>3.7542199999999998E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.12749279999999999</v>
+      </c>
+      <c r="J7">
+        <v>1.1739999999999999E-4</v>
+      </c>
+      <c r="K7">
+        <v>1.3760000000000001E-4</v>
+      </c>
+      <c r="L7">
+        <v>9.2999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0.74721610000000005</v>
+      </c>
+      <c r="E8">
+        <v>0.97960840000000005</v>
+      </c>
+      <c r="F8">
+        <v>0.93964990000000004</v>
+      </c>
+      <c r="G8">
+        <v>0.50556769999999995</v>
+      </c>
+      <c r="H8">
+        <v>4.0783300000000001E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.12070019999999999</v>
+      </c>
+      <c r="J8">
+        <v>1.1730000000000001E-4</v>
+      </c>
+      <c r="K8">
+        <v>1.3789999999999999E-4</v>
+      </c>
+      <c r="L8">
+        <v>9.2700000000000004E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0.74633930000000004</v>
+      </c>
+      <c r="E9">
+        <v>0.98163400000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.93686320000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.50732140000000003</v>
+      </c>
+      <c r="H9">
+        <v>3.6731899999999998E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.12627360000000001</v>
+      </c>
+      <c r="J9">
+        <v>1.175E-4</v>
+      </c>
+      <c r="K9">
+        <v>1.3760000000000001E-4</v>
+      </c>
+      <c r="L9">
+        <v>9.2999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0.74590089999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.98082380000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.93790819999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.50819820000000004</v>
+      </c>
+      <c r="H10">
+        <v>3.8352499999999998E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.12418360000000001</v>
+      </c>
+      <c r="J10">
+        <v>1.176E-4</v>
+      </c>
+      <c r="K10">
+        <v>1.3770000000000001E-4</v>
+      </c>
+      <c r="L10">
+        <v>9.2899999999999995E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0.74335819999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.98149900000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.9375599</v>
+      </c>
+      <c r="G11">
+        <v>0.51328359999999995</v>
+      </c>
+      <c r="H11">
+        <v>3.7002E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.1248803</v>
+      </c>
+      <c r="J11">
+        <v>1.18E-4</v>
+      </c>
+      <c r="K11">
+        <v>1.3760000000000001E-4</v>
+      </c>
+      <c r="L11">
+        <v>9.2899999999999995E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.74335819999999997</v>
+      </c>
+      <c r="E12">
+        <v>0.98149900000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.9375599</v>
+      </c>
+      <c r="G12">
+        <v>0.51328359999999995</v>
+      </c>
+      <c r="H12">
+        <v>3.7002E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.1248803</v>
+      </c>
+      <c r="J12">
+        <v>1.18E-4</v>
+      </c>
+      <c r="K12">
+        <v>1.3760000000000001E-4</v>
+      </c>
+      <c r="L12">
+        <v>9.2899999999999995E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.57168929999999996</v>
+      </c>
+      <c r="E14">
+        <v>0.96285609999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.89834449999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.85662150000000004</v>
+      </c>
+      <c r="H14">
+        <v>7.4287800000000001E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.20331089999999999</v>
+      </c>
+      <c r="J14">
+        <v>4.5600000000000003E-4</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>2.879E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.58315950000000005</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.96357740000000003</v>
+      </c>
+      <c r="F15">
+        <v>0.89394720000000005</v>
+      </c>
+      <c r="G15">
+        <v>0.83368089999999995</v>
+      </c>
+      <c r="H15">
+        <v>7.2845300000000002E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.2121055</v>
+      </c>
+      <c r="J15">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>2.8939999999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0.58967670000000005</v>
+      </c>
+      <c r="E16">
+        <v>0.96285609999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.89679260000000005</v>
+      </c>
+      <c r="G16">
+        <v>0.82064649999999995</v>
+      </c>
+      <c r="H16">
+        <v>7.4287800000000001E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.20641490000000001</v>
+      </c>
+      <c r="J16">
+        <v>4.4210000000000001E-4</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2.8840000000000002E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.58472369999999996</v>
+      </c>
+      <c r="E17">
+        <v>0.96249549999999995</v>
+      </c>
+      <c r="F17">
+        <v>0.8949819</v>
+      </c>
+      <c r="G17">
+        <v>0.83055270000000003</v>
+      </c>
+      <c r="H17">
+        <v>7.5009000000000006E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.21003620000000001</v>
+      </c>
+      <c r="J17">
+        <v>4.4579999999999999E-4</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2.8899999999999998E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0.59332640000000003</v>
+      </c>
+      <c r="E18">
+        <v>0.96105300000000005</v>
+      </c>
+      <c r="F18">
+        <v>0.89679260000000005</v>
+      </c>
+      <c r="G18">
+        <v>0.81334720000000005</v>
+      </c>
+      <c r="H18">
+        <v>7.7894000000000005E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.20641490000000001</v>
+      </c>
+      <c r="J18">
+        <v>4.394E-4</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>2.8840000000000002E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>0.59280500000000003</v>
+      </c>
+      <c r="E19">
+        <v>0.96249549999999995</v>
+      </c>
+      <c r="F19">
+        <v>0.89291259999999995</v>
+      </c>
+      <c r="G19">
+        <v>0.81438999999999995</v>
+      </c>
+      <c r="H19">
+        <v>7.5009000000000006E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.2141749</v>
+      </c>
+      <c r="J19">
+        <v>4.3980000000000001E-4</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>2.8969999999999999E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>0.58654850000000003</v>
+      </c>
+      <c r="E20">
+        <v>0.96213490000000002</v>
+      </c>
+      <c r="F20">
+        <v>0.89549920000000005</v>
+      </c>
+      <c r="G20">
+        <v>0.82690300000000005</v>
+      </c>
+      <c r="H20">
+        <v>7.57303E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.20900160000000001</v>
+      </c>
+      <c r="J20">
+        <v>4.4440000000000001E-4</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>2.8889999999999997E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>0.58420229999999995</v>
+      </c>
+      <c r="E21">
+        <v>0.96177429999999997</v>
+      </c>
+      <c r="F21">
+        <v>0.89446460000000005</v>
+      </c>
+      <c r="G21">
+        <v>0.83159539999999998</v>
+      </c>
+      <c r="H21">
+        <v>7.6451500000000006E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.21107090000000001</v>
+      </c>
+      <c r="J21">
+        <v>4.462E-4</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>2.8919999999999998E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0.58550570000000002</v>
+      </c>
+      <c r="E22">
+        <v>0.96141359999999998</v>
+      </c>
+      <c r="F22">
+        <v>0.89705120000000005</v>
+      </c>
+      <c r="G22">
+        <v>0.82898850000000002</v>
+      </c>
+      <c r="H22">
+        <v>7.7172699999999997E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.20589759999999999</v>
+      </c>
+      <c r="J22">
+        <v>4.4519999999999998E-4</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>2.8840000000000002E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>0.58237749999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.96213490000000002</v>
+      </c>
+      <c r="F23">
+        <v>0.89653389999999999</v>
+      </c>
+      <c r="G23">
+        <v>0.83524500000000002</v>
+      </c>
+      <c r="H23">
+        <v>7.57303E-2</v>
+      </c>
+      <c r="I23">
+        <v>0.20693220000000001</v>
+      </c>
+      <c r="J23">
+        <v>4.4759999999999998E-4</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>2.8850000000000002E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>0.58237749999999999</v>
+      </c>
+      <c r="E24">
+        <v>0.96213490000000002</v>
+      </c>
+      <c r="F24">
+        <v>0.89653389999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.83524500000000002</v>
+      </c>
+      <c r="H24">
+        <v>7.57303E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.20693220000000001</v>
+      </c>
+      <c r="J24">
+        <v>4.4759999999999998E-4</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>2.8850000000000002E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.57921350000000005</v>
+      </c>
+      <c r="E26">
+        <v>0.97551659999999996</v>
+      </c>
+      <c r="F26">
+        <v>0.92415849999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.84157289999999996</v>
+      </c>
+      <c r="H26">
+        <v>4.8966799999999998E-2</v>
+      </c>
+      <c r="I26">
+        <v>0.15168309999999999</v>
+      </c>
+      <c r="J26">
+        <v>1.7819999999999999E-4</v>
+      </c>
+      <c r="K26">
+        <v>1.7799999999999999E-4</v>
+      </c>
+      <c r="L26">
+        <v>1.11E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.60264220000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.9760375</v>
+      </c>
+      <c r="F27">
+        <v>0.92210590000000003</v>
+      </c>
+      <c r="G27">
+        <v>0.79471570000000002</v>
+      </c>
+      <c r="H27">
+        <v>4.7925000000000002E-2</v>
+      </c>
+      <c r="I27">
+        <v>0.15578819999999999</v>
+      </c>
+      <c r="J27">
+        <v>1.7129999999999999E-4</v>
+      </c>
+      <c r="K27">
+        <v>1.7789999999999999E-4</v>
+      </c>
+      <c r="L27">
+        <v>1.1129999999999999E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0.62070389999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.97516930000000002</v>
+      </c>
+      <c r="F28">
+        <v>0.92272169999999998</v>
+      </c>
+      <c r="G28">
+        <v>0.75859220000000005</v>
+      </c>
+      <c r="H28">
+        <v>4.9661400000000001E-2</v>
+      </c>
+      <c r="I28">
+        <v>0.15455669999999999</v>
+      </c>
+      <c r="J28">
+        <v>1.663E-4</v>
+      </c>
+      <c r="K28">
+        <v>1.7809999999999999E-4</v>
+      </c>
+      <c r="L28">
+        <v>1.1120000000000001E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0.628135</v>
+      </c>
+      <c r="E29">
+        <v>0.9762111</v>
+      </c>
+      <c r="F29">
+        <v>0.92056649999999995</v>
+      </c>
+      <c r="G29">
+        <v>0.74373</v>
+      </c>
+      <c r="H29">
+        <v>4.7577700000000001E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.15886700000000001</v>
+      </c>
+      <c r="J29">
+        <v>1.6430000000000001E-4</v>
+      </c>
+      <c r="K29">
+        <v>1.7789999999999999E-4</v>
+      </c>
+      <c r="L29">
+        <v>1.115E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>0.63680460000000005</v>
+      </c>
+      <c r="E30">
+        <v>0.97395379999999998</v>
+      </c>
+      <c r="F30">
+        <v>0.9210796</v>
+      </c>
+      <c r="G30">
+        <v>0.7263908</v>
+      </c>
+      <c r="H30">
+        <v>5.2092399999999997E-2</v>
+      </c>
+      <c r="I30">
+        <v>0.1578407</v>
+      </c>
+      <c r="J30">
+        <v>1.6210000000000001E-4</v>
+      </c>
+      <c r="K30">
+        <v>1.783E-4</v>
+      </c>
+      <c r="L30">
+        <v>1.114E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>0.63928169999999995</v>
+      </c>
+      <c r="E31">
+        <v>0.97516930000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.92036119999999999</v>
+      </c>
+      <c r="G31">
+        <v>0.72143670000000004</v>
+      </c>
+      <c r="H31">
+        <v>4.9661400000000001E-2</v>
+      </c>
+      <c r="I31">
+        <v>0.15927749999999999</v>
+      </c>
+      <c r="J31">
+        <v>1.6139999999999999E-4</v>
+      </c>
+      <c r="K31">
+        <v>1.7809999999999999E-4</v>
+      </c>
+      <c r="L31">
+        <v>1.115E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>0.63824959999999997</v>
+      </c>
+      <c r="E32">
+        <v>0.97325919999999999</v>
+      </c>
+      <c r="F32">
+        <v>0.92097700000000005</v>
+      </c>
+      <c r="G32">
+        <v>0.7235009</v>
+      </c>
+      <c r="H32">
+        <v>5.3481500000000001E-2</v>
+      </c>
+      <c r="I32">
+        <v>0.15804599999999999</v>
+      </c>
+      <c r="J32">
+        <v>1.617E-4</v>
+      </c>
+      <c r="K32">
+        <v>1.784E-4</v>
+      </c>
+      <c r="L32">
+        <v>1.114E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>0.63928169999999995</v>
+      </c>
+      <c r="E33">
+        <v>0.97516930000000002</v>
+      </c>
+      <c r="F33">
+        <v>0.92087439999999998</v>
+      </c>
+      <c r="G33">
+        <v>0.72143670000000004</v>
+      </c>
+      <c r="H33">
+        <v>4.9661400000000001E-2</v>
+      </c>
+      <c r="I33">
+        <v>0.15825120000000001</v>
+      </c>
+      <c r="J33">
+        <v>1.6139999999999999E-4</v>
+      </c>
+      <c r="K33">
+        <v>1.7809999999999999E-4</v>
+      </c>
+      <c r="L33">
+        <v>1.114E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>0.63990089999999999</v>
+      </c>
+      <c r="E34">
+        <v>0.97412750000000004</v>
+      </c>
+      <c r="F34">
+        <v>0.92210590000000003</v>
+      </c>
+      <c r="G34">
+        <v>0.72019820000000001</v>
+      </c>
+      <c r="H34">
+        <v>5.1745100000000002E-2</v>
+      </c>
+      <c r="I34">
+        <v>0.15578819999999999</v>
+      </c>
+      <c r="J34">
+        <v>1.6129999999999999E-4</v>
+      </c>
+      <c r="K34">
+        <v>1.783E-4</v>
+      </c>
+      <c r="L34">
+        <v>1.1129999999999999E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>0.63938490000000003</v>
+      </c>
+      <c r="E35">
+        <v>0.97482199999999997</v>
+      </c>
+      <c r="F35">
+        <v>0.92138750000000003</v>
+      </c>
+      <c r="G35">
+        <v>0.72123029999999999</v>
+      </c>
+      <c r="H35">
+        <v>5.0355999999999998E-2</v>
+      </c>
+      <c r="I35">
+        <v>0.157225</v>
+      </c>
+      <c r="J35">
+        <v>1.6139999999999999E-4</v>
+      </c>
+      <c r="K35">
+        <v>1.7809999999999999E-4</v>
+      </c>
+      <c r="L35">
+        <v>1.114E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>0.63938490000000003</v>
+      </c>
+      <c r="E36">
+        <v>0.97482199999999997</v>
+      </c>
+      <c r="F36">
+        <v>0.92138750000000003</v>
+      </c>
+      <c r="G36">
+        <v>0.72123029999999999</v>
+      </c>
+      <c r="H36">
+        <v>5.0355999999999998E-2</v>
+      </c>
+      <c r="I36">
+        <v>0.157225</v>
+      </c>
+      <c r="J36">
+        <v>1.6139999999999999E-4</v>
+      </c>
+      <c r="K36">
+        <v>1.7809999999999999E-4</v>
+      </c>
+      <c r="L36">
+        <v>1.114E-4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>